--- a/exercise07/consensus_results.xlsx
+++ b/exercise07/consensus_results.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">THMM</t>
+    <t xml:space="preserve">TMHMM</t>
   </si>
   <si>
     <t xml:space="preserve">MEMSAT</t>
@@ -116,11 +116,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,6 +140,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -279,10 +286,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0636602287642977"/>
-          <c:y val="0.0275030558950995"/>
-          <c:w val="0.770985686605413"/>
-          <c:h val="0.835092788087565"/>
+          <c:x val="0.0636386323933117"/>
+          <c:y val="0.0275433140826299"/>
+          <c:w val="0.77096331420015"/>
+          <c:h val="0.834962239004887"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -317,6 +324,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1393,17 +1401,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74094268"/>
-        <c:axId val="68683740"/>
+        <c:axId val="58211859"/>
+        <c:axId val="56748260"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74094268"/>
+        <c:axId val="58211859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1425,7 +1433,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68683740"/>
+        <c:crossAx val="56748260"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68683740"/>
+        <c:axId val="56748260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1456,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1470,7 +1478,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74094268"/>
+        <c:crossAx val="58211859"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1529,9 +1537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1539,8 +1547,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1352880" y="2285280"/>
-        <a:ext cx="5758200" cy="3241440"/>
+        <a:off x="1354320" y="2285280"/>
+        <a:ext cx="5769720" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1561,239 +1569,239 @@
   <dimension ref="A1:MK9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM20" activeCellId="0" sqref="AM20"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="33" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="33" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="3.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="42" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="42" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="61" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="61" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="66" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="66" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="74" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="74" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="77" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="81" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="81" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="90" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="92" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="108" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="108" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="111" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="111" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="113" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="115" min="115" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="116" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="118" min="118" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="118" min="118" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="120" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="121" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="123" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="123" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="124" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="126" min="126" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="127" style="0" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="130" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="130" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="135" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="145" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="135" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="145" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="147" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="148" min="148" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="148" min="148" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="149" min="149" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="150" min="150" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="154" min="151" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="154" min="151" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="155" min="155" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="156" min="156" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="156" min="156" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="157" min="157" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="159" min="158" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="159" min="158" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="161" min="160" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="162" min="162" style="0" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="163" min="163" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="164" min="164" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="165" min="165" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="163" min="163" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="164" min="164" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="165" min="165" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="166" min="166" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="172" min="167" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="172" min="167" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="173" min="173" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="174" min="174" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="174" min="174" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="175" min="175" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="176" min="176" style="0" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="179" min="177" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="179" min="177" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="180" min="180" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="182" min="181" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="182" min="181" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="183" min="183" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="184" min="184" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="184" min="184" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="185" min="185" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="188" min="186" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="188" min="186" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="189" min="189" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="190" min="190" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="193" min="191" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="193" min="191" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="194" min="194" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="198" min="195" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="198" min="195" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="199" min="199" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="203" min="200" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="203" min="200" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="204" min="204" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="205" min="205" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="205" min="205" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="206" min="206" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="207" min="207" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="208" min="208" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="207" min="207" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="208" min="208" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="209" min="209" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="212" min="210" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="212" min="210" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="213" min="213" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="215" min="214" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="216" min="216" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="216" min="216" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="217" min="217" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="218" min="218" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="219" min="219" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="219" min="219" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="220" min="220" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="222" min="221" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="224" min="223" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="224" min="223" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="226" min="225" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="227" min="227" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="228" min="228" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="228" min="228" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="230" min="229" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="236" min="231" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="236" min="231" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="239" min="237" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="242" min="240" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="242" min="240" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="244" min="243" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="245" min="245" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="251" min="246" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="251" min="246" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="252" min="252" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="253" min="253" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="254" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="255" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="253" min="253" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="254" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="255" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="256" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="258" min="258" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="259" min="259" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="258" min="258" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="259" min="259" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="260" min="260" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="261" min="261" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="261" min="261" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="262" min="262" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="263" min="263" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="264" min="264" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="265" min="265" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="265" min="265" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="266" min="266" style="0" width="3.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="267" min="267" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="270" min="268" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="270" min="268" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="271" min="271" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="273" min="272" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="273" min="272" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="274" min="274" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="275" min="275" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="275" min="275" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="276" min="276" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="278" min="277" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="279" min="279" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="279" min="279" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="281" min="280" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="283" min="282" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="283" min="282" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="284" min="284" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="285" min="285" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="286" min="286" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="286" min="286" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="287" min="287" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="288" min="288" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="289" min="289" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="289" min="289" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="290" min="290" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="291" min="291" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="293" min="292" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="293" min="292" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="295" min="294" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="297" min="296" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="297" min="296" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="298" min="298" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="305" min="299" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="305" min="299" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="306" min="306" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="307" min="307" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="307" min="307" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="308" min="308" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="310" min="309" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="312" min="311" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="310" min="309" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="312" min="311" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="313" min="313" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="314" min="314" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="317" min="315" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="318" min="318" style="0" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="319" min="319" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="317" min="315" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="318" min="318" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="319" min="319" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="321" min="320" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="322" min="322" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="324" min="323" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="324" min="323" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="325" min="325" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="328" min="326" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="328" min="326" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="329" min="329" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="330" min="330" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="335" min="331" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="335" min="331" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="337" min="336" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="340" min="338" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="340" min="338" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="341" min="341" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="342" min="342" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="342" min="342" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="343" min="343" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="344" min="344" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="344" min="344" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="345" min="345" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="349" min="346" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="349" min="346" style="0" width="2.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
